--- a/MyProject/Luban/Config/Datas/__enums__.xlsx
+++ b/MyProject/Luban/Config/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\MyProject\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656AB827-8778-43D7-8592-FC948A4E5D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9772048-EA99-4A98-9EAB-C43C11D52A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="13890" yWindow="5445" windowWidth="28740" windowHeight="13575" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,25 @@
   </si>
   <si>
     <t>单个目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTypeEnum</t>
+  </si>
+  <si>
+    <t>Conversation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话（不在地图上显示）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1046,6 +1065,28 @@
         <v>70</v>
       </c>
     </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
